--- a/doc/Measuring_data/Performace_test.xlsx
+++ b/doc/Measuring_data/Performace_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomasbujna/votingApp/E-voting/Measuring_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomasbujna/votingApp/E-voting/doc/Measuring_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BF53D1-39FE-0446-B01D-AC3960BDD966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA34EEE-67E9-9B45-AEDF-6126B8BEC167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="encrypt" sheetId="1" r:id="rId1"/>
@@ -67,12 +67,14 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1431,11 +1433,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1479,19 +1481,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C3" s="5">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D3" s="5">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="E3" s="5">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="F3" s="5">
-        <v>1584</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -1499,19 +1501,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C4" s="8">
         <v>337</v>
       </c>
       <c r="D4" s="8">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E4" s="8">
-        <v>797</v>
+        <v>808</v>
       </c>
       <c r="F4" s="8">
-        <v>1556</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -1519,19 +1521,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C5" s="8">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D5" s="8">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E5" s="8">
-        <v>805</v>
+        <v>787</v>
       </c>
       <c r="F5" s="8">
-        <v>1953</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -1539,19 +1541,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C6" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D6" s="8">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E6" s="8">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="F6" s="8">
-        <v>1574</v>
+        <v>1933.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -1559,25 +1561,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D7" s="8">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E7" s="8">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="F7" s="8">
-        <v>1933.5</v>
+        <v>1953</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{A769B986-D711-154B-A3DA-4EF3BC9A3CC3}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F7">
-      <sortCondition ref="E2:E7"/>
+      <sortCondition ref="F2:F7"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
@@ -1602,7 +1604,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1644,19 +1646,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>7249</v>
+        <v>7296</v>
       </c>
       <c r="C3" s="5">
-        <v>14651</v>
+        <v>15014</v>
       </c>
       <c r="D3" s="5">
-        <v>24598</v>
+        <v>25050</v>
       </c>
       <c r="E3" s="5">
-        <v>39268</v>
+        <v>39589</v>
       </c>
       <c r="F3" s="5">
-        <v>80337</v>
+        <v>79453</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -1664,19 +1666,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>7535</v>
+        <v>7208</v>
       </c>
       <c r="C4" s="8">
-        <v>14984</v>
+        <v>15229</v>
       </c>
       <c r="D4" s="8">
-        <v>24764</v>
+        <v>24964</v>
       </c>
       <c r="E4" s="8">
-        <v>39588</v>
+        <v>39769</v>
       </c>
       <c r="F4" s="8">
-        <v>80062</v>
+        <v>79512</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -1684,19 +1686,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>7296</v>
+        <v>7535</v>
       </c>
       <c r="C5" s="8">
-        <v>15014</v>
+        <v>14984</v>
       </c>
       <c r="D5" s="8">
-        <v>25050</v>
+        <v>24764</v>
       </c>
       <c r="E5" s="8">
-        <v>39589</v>
+        <v>39588</v>
       </c>
       <c r="F5" s="8">
-        <v>79453</v>
+        <v>80062</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -1704,19 +1706,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>7173</v>
+        <v>7249</v>
       </c>
       <c r="C6" s="8">
-        <v>15193</v>
+        <v>14651</v>
       </c>
       <c r="D6" s="8">
-        <v>25043</v>
+        <v>24598</v>
       </c>
       <c r="E6" s="8">
-        <v>39624</v>
+        <v>39268</v>
       </c>
       <c r="F6" s="8">
-        <v>81411</v>
+        <v>80337</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -1724,25 +1726,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>7208</v>
+        <v>7173</v>
       </c>
       <c r="C7" s="8">
-        <v>15229</v>
+        <v>15193</v>
       </c>
       <c r="D7" s="8">
-        <v>24964</v>
+        <v>25043</v>
       </c>
       <c r="E7" s="8">
-        <v>39769</v>
+        <v>39624</v>
       </c>
       <c r="F7" s="8">
-        <v>79512</v>
+        <v>81411</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{AA2A0C6A-1E2D-1640-9A57-018FD197096C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F7">
-      <sortCondition ref="E2:E7"/>
+      <sortCondition ref="F2:F7"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
@@ -1767,7 +1769,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1923,11 +1925,11 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1981,7 +1983,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2001,7 +2003,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2021,7 +2023,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2041,7 +2043,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2061,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2092,7 +2094,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2134,19 +2136,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="5">
         <v>0.03</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.05</v>
       </c>
       <c r="E3" s="5">
         <v>0.05</v>
       </c>
       <c r="F3" s="5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2174,19 +2176,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="C5" s="8">
         <v>0.03</v>
       </c>
-      <c r="C5" s="8">
+      <c r="D5" s="8">
         <v>0.05</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.03</v>
       </c>
       <c r="E5" s="8">
         <v>0.05</v>
       </c>
       <c r="F5" s="8">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2232,7 +2234,7 @@
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{41935B40-08E5-1247-917E-3D7E2AC397DD}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F7">
-      <sortCondition ref="E2:E7"/>
+      <sortCondition ref="F2:F7"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
